--- a/StatsOfClubs.xlsx
+++ b/StatsOfClubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{439385A8-2D0B-4A53-BFFB-7B695F0A1F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85749B-A64B-44F5-AD71-1537E6A9C391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="AJ82" sqref="AJ82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,6 +704,32 @@
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="21.109375" customWidth="1"/>
     <col min="14" max="14" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1"/>
+    <col min="22" max="22" width="18.77734375" customWidth="1"/>
+    <col min="23" max="23" width="18.109375" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="19.33203125" customWidth="1"/>
+    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="27" max="27" width="21.77734375" customWidth="1"/>
+    <col min="28" max="28" width="22.5546875" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="30" width="19.88671875" customWidth="1"/>
+    <col min="31" max="31" width="17.5546875" customWidth="1"/>
+    <col min="32" max="32" width="17.33203125" customWidth="1"/>
+    <col min="33" max="33" width="16" customWidth="1"/>
+    <col min="34" max="34" width="14.33203125" customWidth="1"/>
+    <col min="35" max="35" width="14.6640625" customWidth="1"/>
+    <col min="36" max="36" width="16.6640625" customWidth="1"/>
+    <col min="37" max="37" width="18.109375" customWidth="1"/>
+    <col min="38" max="38" width="17.21875" customWidth="1"/>
+    <col min="39" max="39" width="17.44140625" customWidth="1"/>
+    <col min="40" max="40" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
